--- a/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业总店数.xlsx
+++ b/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业总店数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -625,7 +625,7 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>300</v>
+        <v>415</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -633,68 +633,74 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19</v>
+      </c>
       <c r="I3" t="n">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N3" t="n">
-        <v>43</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="O3" t="n">
+        <v>144</v>
+      </c>
       <c r="P3" t="n">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>89</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>254</v>
+      </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
       <c r="U3" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
@@ -703,632 +709,766 @@
         <v>174</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
       <c r="I4" t="n">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N4" t="n">
-        <v>52</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="O4" t="n">
+        <v>155</v>
+      </c>
       <c r="P4" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>271</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
         <v>59</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>22</v>
-      </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>162</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>191</v>
+      </c>
+      <c r="AB4" t="n">
         <v>4</v>
       </c>
-      <c r="X4" t="n">
-        <v>131</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11</v>
-      </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="AE4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
       <c r="I5" t="n">
-        <v>312</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>95</v>
+      </c>
+      <c r="N5" t="n">
+        <v>79</v>
+      </c>
+      <c r="O5" t="n">
+        <v>165</v>
+      </c>
+      <c r="P5" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>257</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>58</v>
+      </c>
+      <c r="V5" t="n">
+        <v>45</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>158</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>184</v>
+      </c>
+      <c r="AB5" t="n">
         <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96</v>
-      </c>
-      <c r="N5" t="n">
-        <v>69</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>45</v>
-      </c>
-      <c r="V5" t="n">
-        <v>34</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>171</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>205</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AE5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>94</v>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>306</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>98</v>
+      </c>
+      <c r="N6" t="n">
+        <v>77</v>
+      </c>
+      <c r="O6" t="n">
+        <v>162</v>
+      </c>
+      <c r="P6" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>267</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>61</v>
+      </c>
+      <c r="V6" t="n">
+        <v>48</v>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>163</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>185</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
       <c r="AD6" t="n">
-        <v>426</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+        <v>465</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>302</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>94</v>
+      </c>
+      <c r="N7" t="n">
+        <v>77</v>
+      </c>
+      <c r="O7" t="n">
+        <v>166</v>
+      </c>
+      <c r="P7" t="n">
+        <v>102</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>253</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>59</v>
+      </c>
+      <c r="V7" t="n">
+        <v>46</v>
+      </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>156</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>174</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
       <c r="AD7" t="n">
-        <v>415</v>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+        <v>455</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N8" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O8" t="n">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="P8" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Q8" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="V8" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="n">
         <v>174</v>
       </c>
       <c r="AB8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>11</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N9" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O9" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="P9" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="Q9" t="n">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>12</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="V9" t="n">
-        <v>44</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Y9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" t="n">
+        <v>308</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>88</v>
+      </c>
+      <c r="N10" t="n">
+        <v>71</v>
+      </c>
+      <c r="O10" t="n">
+        <v>184</v>
+      </c>
+      <c r="P10" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>250</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
         <v>14</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>88</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15</v>
-      </c>
-      <c r="I10" t="n">
-        <v>301</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>95</v>
-      </c>
-      <c r="N10" t="n">
-        <v>79</v>
-      </c>
-      <c r="O10" t="n">
-        <v>165</v>
-      </c>
-      <c r="P10" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>257</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>10</v>
-      </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="V10" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AB10" t="n">
         <v>3</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>107</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>306</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N11" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O11" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="P11" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="n">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="V11" t="n">
-        <v>48</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
       <c r="X11" t="n">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="n">
         <v>3</v>
@@ -1337,565 +1477,161 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>302</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N12" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O12" t="n">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="P12" t="n">
         <v>102</v>
       </c>
       <c r="Q12" t="n">
-        <v>253</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="V12" t="n">
+        <v>73</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>198</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>504</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="n">
         <v>46</v>
-      </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>156</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>174</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>455</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
-        <v>298</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>95</v>
       </c>
       <c r="N13" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="P13" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q13" t="n">
-        <v>251</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
         <v>14</v>
       </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
+        <v>98</v>
+      </c>
+      <c r="V13" t="n">
+        <v>78</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>228</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>553</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
         <v>66</v>
-      </c>
-      <c r="V13" t="n">
-        <v>49</v>
-      </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>158</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>174</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>459</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>300</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>83</v>
-      </c>
-      <c r="N14" t="n">
-        <v>66</v>
-      </c>
-      <c r="O14" t="n">
-        <v>176</v>
-      </c>
-      <c r="P14" t="n">
-        <v>102</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>249</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>12</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>80</v>
-      </c>
-      <c r="V14" t="n">
-        <v>65</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>157</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>172</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>463</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>108</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
-      </c>
-      <c r="I15" t="n">
-        <v>308</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>88</v>
-      </c>
-      <c r="N15" t="n">
-        <v>71</v>
-      </c>
-      <c r="O15" t="n">
-        <v>184</v>
-      </c>
-      <c r="P15" t="n">
-        <v>109</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>250</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>14</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>86</v>
-      </c>
-      <c r="V15" t="n">
-        <v>68</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>165</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>176</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>482</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>107</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16</v>
-      </c>
-      <c r="I16" t="n">
-        <v>320</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>89</v>
-      </c>
-      <c r="N16" t="n">
-        <v>73</v>
-      </c>
-      <c r="O16" t="n">
-        <v>187</v>
-      </c>
-      <c r="P16" t="n">
-        <v>107</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>254</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>15</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>86</v>
-      </c>
-      <c r="V16" t="n">
-        <v>67</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>495</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I17" t="n">
-        <v>323</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>91</v>
-      </c>
-      <c r="N17" t="n">
-        <v>73</v>
-      </c>
-      <c r="O17" t="n">
-        <v>192</v>
-      </c>
-      <c r="P17" t="n">
-        <v>102</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>251</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>12</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>90</v>
-      </c>
-      <c r="V17" t="n">
-        <v>73</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>198</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>504</v>
-      </c>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="n">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
